--- a/Code/Results/Cases/Case_1_211/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_211/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.247013433729868</v>
+        <v>7.779501060154568</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.840760658319002</v>
+        <v>10.2373938384862</v>
       </c>
       <c r="E2">
-        <v>7.594479927387334</v>
+        <v>13.99612960964306</v>
       </c>
       <c r="F2">
-        <v>22.61579206437242</v>
+        <v>27.22541788187684</v>
       </c>
       <c r="G2">
-        <v>29.44314334293501</v>
+        <v>26.44254053043482</v>
       </c>
       <c r="H2">
-        <v>8.943786524069097</v>
+        <v>13.15773181025866</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.286539963400533</v>
+        <v>9.82979599056854</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>22.8224446807705</v>
+        <v>18.27105920890671</v>
       </c>
       <c r="N2">
-        <v>16.35086332196262</v>
+        <v>17.83519077232751</v>
       </c>
       <c r="O2">
-        <v>16.20274229386951</v>
+        <v>19.81460210027505</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.892759357578548</v>
+        <v>7.705586864444626</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.86202728534421</v>
+        <v>10.26968971567905</v>
       </c>
       <c r="E3">
-        <v>7.728323976711439</v>
+        <v>14.06525292659726</v>
       </c>
       <c r="F3">
-        <v>21.63472482507415</v>
+        <v>27.1279042206101</v>
       </c>
       <c r="G3">
-        <v>27.67676690975654</v>
+        <v>26.0463120115921</v>
       </c>
       <c r="H3">
-        <v>8.718772738547463</v>
+        <v>13.15993155945395</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.390327321240679</v>
+        <v>9.870375185156</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>21.36822393788158</v>
+        <v>17.75885792108064</v>
       </c>
       <c r="N3">
-        <v>15.95432751394148</v>
+        <v>17.74420608268311</v>
       </c>
       <c r="O3">
-        <v>15.51479013790742</v>
+        <v>19.74533093088947</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.668444090879568</v>
+        <v>7.661628248227161</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.878841705002261</v>
+        <v>10.29108972175371</v>
       </c>
       <c r="E4">
-        <v>7.816472612281983</v>
+        <v>14.11024113680611</v>
       </c>
       <c r="F4">
-        <v>21.02940464869065</v>
+        <v>27.07559584471297</v>
       </c>
       <c r="G4">
-        <v>26.55809121750219</v>
+        <v>25.80933067477273</v>
       </c>
       <c r="H4">
-        <v>8.584275143014796</v>
+        <v>13.16395093012061</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.456377325057797</v>
+        <v>9.896594097422296</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20.42198187066184</v>
+        <v>17.43702975154642</v>
       </c>
       <c r="N4">
-        <v>15.70975361592027</v>
+        <v>17.69051490325329</v>
       </c>
       <c r="O4">
-        <v>15.09017463159147</v>
+        <v>19.70792797885207</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.57545566542474</v>
+        <v>7.64409362305902</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.886607764257988</v>
+        <v>10.30020523727466</v>
       </c>
       <c r="E5">
-        <v>7.853836296553866</v>
+        <v>14.12921480063321</v>
       </c>
       <c r="F5">
-        <v>20.78235727779198</v>
+        <v>27.05619828320707</v>
       </c>
       <c r="G5">
-        <v>26.09408657060962</v>
+        <v>25.71448120192073</v>
       </c>
       <c r="H5">
-        <v>8.530437852961963</v>
+        <v>13.166260293027</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.483875483025882</v>
+        <v>9.907606917723378</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20.02296478245568</v>
+        <v>17.30420987387504</v>
       </c>
       <c r="N5">
-        <v>15.60994763753644</v>
+        <v>17.6691998329978</v>
       </c>
       <c r="O5">
-        <v>14.91683519707084</v>
+        <v>19.69398725434686</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.559923958964797</v>
+        <v>7.641205481415704</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.887951633690437</v>
+        <v>10.30174270898357</v>
       </c>
       <c r="E6">
-        <v>7.860126020720791</v>
+        <v>14.13240406433682</v>
       </c>
       <c r="F6">
-        <v>20.74132407565677</v>
+        <v>27.053093628025</v>
       </c>
       <c r="G6">
-        <v>26.01656266264002</v>
+        <v>25.69883947642649</v>
       </c>
       <c r="H6">
-        <v>8.52155835581841</v>
+        <v>13.16668431871898</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.488476648470572</v>
+        <v>9.909455443998008</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.95589826377701</v>
+        <v>17.28205949674647</v>
       </c>
       <c r="N6">
-        <v>15.59337056290746</v>
+        <v>17.66569508830805</v>
       </c>
       <c r="O6">
-        <v>14.88804173533302</v>
+        <v>19.69175130062039</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.667196216531791</v>
+        <v>7.661390209481102</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.8789427798999</v>
+        <v>10.29121105809111</v>
       </c>
       <c r="E7">
-        <v>7.816970744946902</v>
+        <v>14.11049442802857</v>
       </c>
       <c r="F7">
-        <v>21.02607388597074</v>
+        <v>27.07532645501286</v>
       </c>
       <c r="G7">
-        <v>26.55186576385814</v>
+        <v>25.80804434960562</v>
       </c>
       <c r="H7">
-        <v>8.583545074225732</v>
+        <v>13.16397935614277</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.456745819631332</v>
+        <v>9.896741289530288</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20.41665489845371</v>
+        <v>17.43524503108592</v>
       </c>
       <c r="N7">
-        <v>15.70840798060657</v>
+        <v>17.69022513184995</v>
       </c>
       <c r="O7">
-        <v>15.08783779985831</v>
+        <v>19.70773468681212</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.126351524785866</v>
+        <v>7.753732210924177</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.847295160024355</v>
+        <v>10.24820356042513</v>
       </c>
       <c r="E8">
-        <v>7.639354022848169</v>
+        <v>14.01943506232824</v>
       </c>
       <c r="F8">
-        <v>22.27833672765243</v>
+        <v>27.19023543557205</v>
       </c>
       <c r="G8">
-        <v>28.84141044950462</v>
+        <v>26.30469564838683</v>
       </c>
       <c r="H8">
-        <v>8.865472381257016</v>
+        <v>13.1579367000847</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.321841913540112</v>
+        <v>9.843517668067813</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>22.33209539200141</v>
+        <v>18.09607392474</v>
       </c>
       <c r="N8">
-        <v>16.21444582654304</v>
+        <v>17.80337900698055</v>
       </c>
       <c r="O8">
-        <v>15.96613675319275</v>
+        <v>19.7896600131566</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.967953304254342</v>
+        <v>7.945188960833294</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.816432642916219</v>
+        <v>10.17632486226968</v>
       </c>
       <c r="E9">
-        <v>7.341305051356381</v>
+        <v>13.86105544047872</v>
       </c>
       <c r="F9">
-        <v>24.69684889515639</v>
+        <v>27.47477121148286</v>
       </c>
       <c r="G9">
-        <v>33.0461905379397</v>
+        <v>27.32248858833617</v>
       </c>
       <c r="H9">
-        <v>9.445176570080349</v>
+        <v>13.16723445767794</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.075877852919612</v>
+        <v>9.749452777294223</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>25.66582039205413</v>
+        <v>19.32682741395674</v>
       </c>
       <c r="N9">
-        <v>17.19240724655443</v>
+        <v>18.04170882069112</v>
       </c>
       <c r="O9">
-        <v>17.66143471151099</v>
+        <v>19.99044367601479</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.574505171859197</v>
+        <v>8.09089551023272</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.814712028051268</v>
+        <v>10.13111066183369</v>
       </c>
       <c r="E10">
-        <v>7.157450438958095</v>
+        <v>13.75697886212721</v>
       </c>
       <c r="F10">
-        <v>26.43578304356559</v>
+        <v>27.71863265417452</v>
       </c>
       <c r="G10">
-        <v>35.95795287866532</v>
+        <v>28.08865498578096</v>
       </c>
       <c r="H10">
-        <v>9.884655482572196</v>
+        <v>13.1869031909526</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.906774599190293</v>
+        <v>9.686579383322529</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>27.85953950648237</v>
+        <v>20.18295244814011</v>
       </c>
       <c r="N10">
-        <v>17.89511711981318</v>
+        <v>18.22570674493538</v>
       </c>
       <c r="O10">
-        <v>18.87997295878294</v>
+        <v>20.16154662464087</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.877875332064459</v>
+        <v>8.157998521071178</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.818901412589871</v>
+        <v>10.11219075718494</v>
       </c>
       <c r="E11">
-        <v>7.082566418615049</v>
+        <v>13.71229525649886</v>
       </c>
       <c r="F11">
-        <v>27.21631004651464</v>
+        <v>27.836809459689</v>
       </c>
       <c r="G11">
-        <v>37.27708535581947</v>
+        <v>28.43943799784849</v>
       </c>
       <c r="H11">
-        <v>10.08701460278309</v>
+        <v>13.19862025978119</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.832459219431104</v>
+        <v>9.659320830632215</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>28.80263000454661</v>
+        <v>20.56044965756783</v>
       </c>
       <c r="N11">
-        <v>18.21004674253906</v>
+        <v>18.31109589195117</v>
       </c>
       <c r="O11">
-        <v>19.42686045358671</v>
+        <v>20.24428903158983</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.990258169303088</v>
+        <v>8.183503321186334</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.821237830018537</v>
+        <v>10.10526333224627</v>
       </c>
       <c r="E12">
-        <v>7.055574356786922</v>
+        <v>13.69575728136191</v>
       </c>
       <c r="F12">
-        <v>27.51022583929805</v>
+        <v>27.88257104851826</v>
       </c>
       <c r="G12">
-        <v>37.76977415687482</v>
+        <v>28.5724504240593</v>
       </c>
       <c r="H12">
-        <v>10.16395674148138</v>
+        <v>13.20345332593907</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.804704326154161</v>
+        <v>9.649191112882011</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>29.1519243868536</v>
+        <v>20.70156685417991</v>
       </c>
       <c r="N12">
-        <v>18.32852300067314</v>
+        <v>18.34365175014733</v>
       </c>
       <c r="O12">
-        <v>19.63279030483683</v>
+        <v>20.27630642277817</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.966165222950487</v>
+        <v>8.178006584505543</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.820700725348702</v>
+        <v>10.10674472882818</v>
       </c>
       <c r="E13">
-        <v>7.061325076711319</v>
+        <v>13.69930200689793</v>
       </c>
       <c r="F13">
-        <v>27.44700110703074</v>
+        <v>27.87267103858672</v>
       </c>
       <c r="G13">
-        <v>37.66396803977672</v>
+        <v>28.54379814603918</v>
       </c>
       <c r="H13">
-        <v>10.14737247513012</v>
+        <v>13.20239486231673</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.810664429993881</v>
+        <v>9.651364176559001</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>29.07704507990446</v>
+        <v>20.67125793789399</v>
       </c>
       <c r="N13">
-        <v>18.3030432323807</v>
+        <v>18.33663079165235</v>
       </c>
       <c r="O13">
-        <v>19.58849264153986</v>
+        <v>20.26938080256099</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.887171054243735</v>
+        <v>8.160095060243547</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.819078398971305</v>
+        <v>10.11161608063097</v>
       </c>
       <c r="E14">
-        <v>7.080317766450336</v>
+        <v>13.71092699637013</v>
       </c>
       <c r="F14">
-        <v>27.2405244532557</v>
+        <v>27.84055422351205</v>
       </c>
       <c r="G14">
-        <v>37.31775589566976</v>
+        <v>28.45037824935382</v>
       </c>
       <c r="H14">
-        <v>10.09333859453201</v>
+        <v>13.19900995515151</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.830167982608651</v>
+        <v>9.658483597965532</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>28.83152333346349</v>
+        <v>20.57209679461275</v>
       </c>
       <c r="N14">
-        <v>18.21981004136448</v>
+        <v>18.31376998187628</v>
       </c>
       <c r="O14">
-        <v>19.44382621280722</v>
+        <v>20.24690952507408</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.838460313503326</v>
+        <v>8.14913532258004</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.818183390129873</v>
+        <v>10.11463080926502</v>
       </c>
       <c r="E15">
-        <v>7.092132412084183</v>
+        <v>13.71809748344538</v>
       </c>
       <c r="F15">
-        <v>27.11383285766718</v>
+        <v>27.82101240441542</v>
       </c>
       <c r="G15">
-        <v>37.10480198658651</v>
+        <v>28.3931748745878</v>
       </c>
       <c r="H15">
-        <v>10.06028106072416</v>
+        <v>13.19698810991731</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.84216521689709</v>
+        <v>9.66286950135642</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>28.68011569726995</v>
+        <v>20.51111587962234</v>
       </c>
       <c r="N15">
-        <v>18.16872282986702</v>
+        <v>18.29979518394373</v>
       </c>
       <c r="O15">
-        <v>19.35505983352052</v>
+        <v>20.23323373483489</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.554328658718561</v>
+        <v>8.086524656366096</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.814541281080828</v>
+        <v>10.13238029914323</v>
       </c>
       <c r="E16">
-        <v>7.16252926777151</v>
+        <v>13.75995259637301</v>
       </c>
       <c r="F16">
-        <v>26.38454912724182</v>
+        <v>27.71105267109342</v>
       </c>
       <c r="G16">
-        <v>35.87078513900965</v>
+        <v>28.06576328327429</v>
       </c>
       <c r="H16">
-        <v>9.871476550427388</v>
+        <v>13.18619300480938</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.911684724767436</v>
+        <v>9.688387764399113</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>27.79680710964985</v>
+        <v>20.15803154730908</v>
       </c>
       <c r="N16">
-        <v>17.87443169026535</v>
+        <v>18.22015846127148</v>
       </c>
       <c r="O16">
-        <v>18.84407416922547</v>
+        <v>20.15623618975233</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.380780356090858</v>
+        <v>8.048308313644778</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.813605279602519</v>
+        <v>10.14369127742575</v>
       </c>
       <c r="E17">
-        <v>7.208029677038448</v>
+        <v>13.78631100309932</v>
       </c>
       <c r="F17">
-        <v>25.93434932713136</v>
+        <v>27.64542967732035</v>
       </c>
       <c r="G17">
-        <v>35.11992858688868</v>
+        <v>27.86537881363133</v>
       </c>
       <c r="H17">
-        <v>9.756246898063996</v>
+        <v>13.1802784735342</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.955008575947022</v>
+        <v>9.704385903950623</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>27.24091477192805</v>
+        <v>19.93827873606756</v>
       </c>
       <c r="N17">
-        <v>17.69260666533188</v>
+        <v>18.17172068920671</v>
       </c>
       <c r="O17">
-        <v>18.52862010455128</v>
+        <v>20.11024295034062</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.294931338711464</v>
+        <v>8.026405910958072</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.813532805454632</v>
+        <v>10.15035218843506</v>
       </c>
       <c r="E18">
-        <v>7.235017166017281</v>
+        <v>13.80172215590989</v>
       </c>
       <c r="F18">
-        <v>25.67442149042699</v>
+        <v>27.60836879857887</v>
       </c>
       <c r="G18">
-        <v>34.68784619491871</v>
+        <v>27.75034322716106</v>
       </c>
       <c r="H18">
-        <v>9.690201196565406</v>
+        <v>13.17713743938237</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.980172202611044</v>
+        <v>9.713714042973903</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>26.91601449622014</v>
+        <v>19.81076317637119</v>
       </c>
       <c r="N18">
-        <v>17.5875852685123</v>
+        <v>18.14402073027613</v>
       </c>
       <c r="O18">
-        <v>18.34648362590872</v>
+        <v>20.08425204887743</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.265709325107581</v>
+        <v>8.019004359738583</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.813587220606244</v>
+        <v>10.15263409961214</v>
       </c>
       <c r="E19">
-        <v>7.244291883999228</v>
+        <v>13.80698312959773</v>
       </c>
       <c r="F19">
-        <v>25.58625018931372</v>
+        <v>27.5959389630104</v>
       </c>
       <c r="G19">
-        <v>34.54087759554982</v>
+        <v>27.7114364645148</v>
       </c>
       <c r="H19">
-        <v>9.667880234789084</v>
+        <v>13.17611880169214</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.988733931205239</v>
+        <v>9.716894123862676</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>26.80512012535006</v>
+        <v>19.76739995104356</v>
       </c>
       <c r="N19">
-        <v>17.55195436518191</v>
+        <v>18.134670169811</v>
       </c>
       <c r="O19">
-        <v>18.28469926479011</v>
+        <v>20.07553214726469</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.396595022111104</v>
+        <v>8.052368542529036</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.813656447875348</v>
+        <v>10.14247114771118</v>
       </c>
       <c r="E20">
-        <v>7.20310080066644</v>
+        <v>13.7834791803209</v>
       </c>
       <c r="F20">
-        <v>25.98237693377712</v>
+        <v>27.65234481109555</v>
       </c>
       <c r="G20">
-        <v>35.19957722396473</v>
+        <v>27.88668834912316</v>
       </c>
       <c r="H20">
-        <v>9.768489639305262</v>
+        <v>13.18088110359397</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.95037125865128</v>
+        <v>9.702669793783132</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>27.30062472837355</v>
+        <v>19.96178852379582</v>
       </c>
       <c r="N20">
-        <v>17.71200858538866</v>
+        <v>18.17686055344693</v>
       </c>
       <c r="O20">
-        <v>18.56227351160803</v>
+        <v>20.11509121807087</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.910441150358309</v>
+        <v>8.165353736062581</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.819534281143869</v>
+        <v>10.11017880991694</v>
       </c>
       <c r="E21">
-        <v>7.074701213437142</v>
+        <v>13.7075020673209</v>
       </c>
       <c r="F21">
-        <v>27.30121741608444</v>
+        <v>27.84996053967033</v>
       </c>
       <c r="G21">
-        <v>37.41963194684088</v>
+        <v>28.47781422917461</v>
       </c>
       <c r="H21">
-        <v>10.10920142287462</v>
+        <v>13.19999345460791</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.824428717141014</v>
+        <v>9.656387231515263</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>28.90385116831935</v>
+        <v>20.60127341398135</v>
       </c>
       <c r="N21">
-        <v>18.24427958544861</v>
+        <v>18.32047893741995</v>
       </c>
       <c r="O21">
-        <v>19.48635047696085</v>
+        <v>20.25349147648858</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.232928473428954</v>
+        <v>8.239735191649753</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.827763657327123</v>
+        <v>10.09045614101707</v>
       </c>
       <c r="E22">
-        <v>6.998796834083882</v>
+        <v>13.66007755800714</v>
       </c>
       <c r="F22">
-        <v>28.15348617817946</v>
+        <v>27.98498866765588</v>
       </c>
       <c r="G22">
-        <v>38.84100621751806</v>
+        <v>28.86512535649651</v>
       </c>
       <c r="H22">
-        <v>10.33368887196927</v>
+        <v>13.2147917926446</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.744379398659884</v>
+        <v>9.627260695920944</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>29.90602154007193</v>
+        <v>21.00848611508276</v>
       </c>
       <c r="N22">
-        <v>18.58755883578783</v>
+        <v>18.415618810908</v>
       </c>
       <c r="O22">
-        <v>20.08347591464065</v>
+        <v>20.34792403522127</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.062134603305054</v>
+        <v>8.199994839421903</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.822958380855968</v>
+        <v>10.10085598812266</v>
       </c>
       <c r="E23">
-        <v>7.03853757221053</v>
+        <v>13.68518475898333</v>
       </c>
       <c r="F23">
-        <v>27.69953453157916</v>
+        <v>27.91239479122993</v>
       </c>
       <c r="G23">
-        <v>38.08601487000678</v>
+        <v>28.6583676567582</v>
       </c>
       <c r="H23">
-        <v>10.21372048492209</v>
+        <v>13.20668334023168</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.786891844053081</v>
+        <v>9.642703626640415</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>29.37530046470921</v>
+        <v>20.79216511787402</v>
       </c>
       <c r="N23">
-        <v>18.4047948404131</v>
+        <v>18.36473129685766</v>
       </c>
       <c r="O23">
-        <v>19.7654264058018</v>
+        <v>20.29716668134994</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.389448170573989</v>
+        <v>8.050532697320891</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.813631866966169</v>
+        <v>10.14302227596898</v>
       </c>
       <c r="E24">
-        <v>7.205326572388398</v>
+        <v>13.78475864576084</v>
       </c>
       <c r="F24">
-        <v>25.96066707413497</v>
+        <v>27.64921640016553</v>
       </c>
       <c r="G24">
-        <v>35.16358091233251</v>
+        <v>27.87705377330274</v>
       </c>
       <c r="H24">
-        <v>9.762954065870352</v>
+        <v>13.18060784662069</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.952466992717921</v>
+        <v>9.703445240341079</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>27.27364640159858</v>
+        <v>19.95116340530512</v>
       </c>
       <c r="N24">
-        <v>17.70323848895804</v>
+        <v>18.17453635953123</v>
       </c>
       <c r="O24">
-        <v>18.54706122113245</v>
+        <v>20.11289790907812</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.747176061079278</v>
+        <v>7.89241521017636</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.821243510759711</v>
+        <v>10.194436166965</v>
       </c>
       <c r="E25">
-        <v>7.416120549400531</v>
+        <v>13.90174251277983</v>
       </c>
       <c r="F25">
-        <v>24.04830609717723</v>
+        <v>27.39158121593925</v>
       </c>
       <c r="G25">
-        <v>31.94083572185614</v>
+        <v>27.0433147530846</v>
       </c>
       <c r="H25">
-        <v>9.28577652554667</v>
+        <v>13.16245948089281</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.140405020914962</v>
+        <v>9.773801344838141</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>24.8090182821609</v>
+        <v>19.00176485642352</v>
       </c>
       <c r="N25">
-        <v>16.93013947398059</v>
+        <v>17.97558872400398</v>
       </c>
       <c r="O25">
-        <v>17.20690943060207</v>
+        <v>19.93191460752485</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_211/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_211/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.779501060154568</v>
+        <v>7.247013433729895</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.2373938384862</v>
+        <v>5.840760658319065</v>
       </c>
       <c r="E2">
-        <v>13.99612960964306</v>
+        <v>7.594479927387397</v>
       </c>
       <c r="F2">
-        <v>27.22541788187684</v>
+        <v>22.61579206437248</v>
       </c>
       <c r="G2">
-        <v>26.44254053043482</v>
+        <v>29.44314334293506</v>
       </c>
       <c r="H2">
-        <v>13.15773181025866</v>
+        <v>8.943786524069129</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.82979599056854</v>
+        <v>5.286539963400534</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.27105920890671</v>
+        <v>22.82244468077046</v>
       </c>
       <c r="N2">
-        <v>17.83519077232751</v>
+        <v>16.35086332196261</v>
       </c>
       <c r="O2">
-        <v>19.81460210027505</v>
+        <v>16.20274229386954</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.705586864444626</v>
+        <v>6.892759357578577</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.26968971567905</v>
+        <v>5.862027285344269</v>
       </c>
       <c r="E3">
-        <v>14.06525292659726</v>
+        <v>7.728323976711568</v>
       </c>
       <c r="F3">
-        <v>27.1279042206101</v>
+        <v>21.63472482507419</v>
       </c>
       <c r="G3">
-        <v>26.0463120115921</v>
+        <v>27.67676690975654</v>
       </c>
       <c r="H3">
-        <v>13.15993155945395</v>
+        <v>8.718772738547456</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.870375185156</v>
+        <v>5.390327321240679</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.75885792108064</v>
+        <v>21.36822393788157</v>
       </c>
       <c r="N3">
-        <v>17.74420608268311</v>
+        <v>15.95432751394155</v>
       </c>
       <c r="O3">
-        <v>19.74533093088947</v>
+        <v>15.51479013790744</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.661628248227161</v>
+        <v>6.66844409087944</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.29108972175371</v>
+        <v>5.878841705002133</v>
       </c>
       <c r="E4">
-        <v>14.11024113680611</v>
+        <v>7.816472612281985</v>
       </c>
       <c r="F4">
-        <v>27.07559584471297</v>
+        <v>21.02940464869059</v>
       </c>
       <c r="G4">
-        <v>25.80933067477273</v>
+        <v>26.55809121750216</v>
       </c>
       <c r="H4">
-        <v>13.16395093012061</v>
+        <v>8.58427514301475</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.896594097422296</v>
+        <v>5.456377325057765</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.43702975154642</v>
+        <v>20.42198187066187</v>
       </c>
       <c r="N4">
-        <v>17.69051490325329</v>
+        <v>15.70975361592024</v>
       </c>
       <c r="O4">
-        <v>19.70792797885207</v>
+        <v>15.09017463159143</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.64409362305902</v>
+        <v>6.575455665424769</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.30020523727466</v>
+        <v>5.886607764257931</v>
       </c>
       <c r="E5">
-        <v>14.12921480063321</v>
+        <v>7.853836296553804</v>
       </c>
       <c r="F5">
-        <v>27.05619828320707</v>
+        <v>20.78235727779202</v>
       </c>
       <c r="G5">
-        <v>25.71448120192073</v>
+        <v>26.09408657060968</v>
       </c>
       <c r="H5">
-        <v>13.166260293027</v>
+        <v>8.530437852961963</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.907606917723378</v>
+        <v>5.483875483025883</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.30420987387504</v>
+        <v>20.02296478245568</v>
       </c>
       <c r="N5">
-        <v>17.6691998329978</v>
+        <v>15.60994763753645</v>
       </c>
       <c r="O5">
-        <v>19.69398725434686</v>
+        <v>14.91683519707086</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.641205481415704</v>
+        <v>6.559923958964855</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.30174270898357</v>
+        <v>5.887951633690441</v>
       </c>
       <c r="E6">
-        <v>14.13240406433682</v>
+        <v>7.860126020720854</v>
       </c>
       <c r="F6">
-        <v>27.053093628025</v>
+        <v>20.74132407565677</v>
       </c>
       <c r="G6">
-        <v>25.69883947642649</v>
+        <v>26.01656266264004</v>
       </c>
       <c r="H6">
-        <v>13.16668431871898</v>
+        <v>8.521558355818406</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.909455443998008</v>
+        <v>5.488476648470603</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.28205949674647</v>
+        <v>19.95589826377699</v>
       </c>
       <c r="N6">
-        <v>17.66569508830805</v>
+        <v>15.59337056290747</v>
       </c>
       <c r="O6">
-        <v>19.69175130062039</v>
+        <v>14.88804173533302</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.661390209481102</v>
+        <v>6.667196216531776</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.29121105809111</v>
+        <v>5.878942779899848</v>
       </c>
       <c r="E7">
-        <v>14.11049442802857</v>
+        <v>7.816970744946965</v>
       </c>
       <c r="F7">
-        <v>27.07532645501286</v>
+        <v>21.02607388597082</v>
       </c>
       <c r="G7">
-        <v>25.80804434960562</v>
+        <v>26.55186576385822</v>
       </c>
       <c r="H7">
-        <v>13.16397935614277</v>
+        <v>8.583545074225777</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.896741289530288</v>
+        <v>5.456745819631466</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.43524503108592</v>
+        <v>20.41665489845366</v>
       </c>
       <c r="N7">
-        <v>17.69022513184995</v>
+        <v>15.70840798060657</v>
       </c>
       <c r="O7">
-        <v>19.70773468681212</v>
+        <v>15.0878377998584</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.753732210924177</v>
+        <v>7.126351524785783</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.24820356042513</v>
+        <v>5.847295160024355</v>
       </c>
       <c r="E8">
-        <v>14.01943506232824</v>
+        <v>7.639354022848162</v>
       </c>
       <c r="F8">
-        <v>27.19023543557205</v>
+        <v>22.27833672765243</v>
       </c>
       <c r="G8">
-        <v>26.30469564838683</v>
+        <v>28.84141044950465</v>
       </c>
       <c r="H8">
-        <v>13.1579367000847</v>
+        <v>8.865472381257016</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.843517668067813</v>
+        <v>5.321841913540112</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.09607392474</v>
+        <v>22.33209539200143</v>
       </c>
       <c r="N8">
-        <v>17.80337900698055</v>
+        <v>16.21444582654308</v>
       </c>
       <c r="O8">
-        <v>19.7896600131566</v>
+        <v>15.96613675319275</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.945188960833294</v>
+        <v>7.967953304254319</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.17632486226968</v>
+        <v>5.81643264291621</v>
       </c>
       <c r="E9">
-        <v>13.86105544047872</v>
+        <v>7.341305051356264</v>
       </c>
       <c r="F9">
-        <v>27.47477121148286</v>
+        <v>24.69684889515639</v>
       </c>
       <c r="G9">
-        <v>27.32248858833617</v>
+        <v>33.04619053793972</v>
       </c>
       <c r="H9">
-        <v>13.16723445767794</v>
+        <v>9.445176570080378</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.749452777294223</v>
+        <v>5.075877852919579</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.32682741395674</v>
+        <v>25.66582039205414</v>
       </c>
       <c r="N9">
-        <v>18.04170882069112</v>
+        <v>17.19240724655441</v>
       </c>
       <c r="O9">
-        <v>19.99044367601479</v>
+        <v>17.66143471151101</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.09089551023272</v>
+        <v>8.57450517185919</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.13111066183369</v>
+        <v>5.814712028051231</v>
       </c>
       <c r="E10">
-        <v>13.75697886212721</v>
+        <v>7.157450438958099</v>
       </c>
       <c r="F10">
-        <v>27.71863265417452</v>
+        <v>26.43578304356555</v>
       </c>
       <c r="G10">
-        <v>28.08865498578096</v>
+        <v>35.95795287866527</v>
       </c>
       <c r="H10">
-        <v>13.1869031909526</v>
+        <v>9.884655482572152</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.686579383322529</v>
+        <v>4.906774599190323</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.18295244814011</v>
+        <v>27.85953950648242</v>
       </c>
       <c r="N10">
-        <v>18.22570674493538</v>
+        <v>17.89511711981321</v>
       </c>
       <c r="O10">
-        <v>20.16154662464087</v>
+        <v>18.87997295878291</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.157998521071178</v>
+        <v>8.877875332064368</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.11219075718494</v>
+        <v>5.818901412589829</v>
       </c>
       <c r="E11">
-        <v>13.71229525649886</v>
+        <v>7.082566418615047</v>
       </c>
       <c r="F11">
-        <v>27.836809459689</v>
+        <v>27.21631004651465</v>
       </c>
       <c r="G11">
-        <v>28.43943799784849</v>
+        <v>37.27708535581939</v>
       </c>
       <c r="H11">
-        <v>13.19862025978119</v>
+        <v>10.0870146027831</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.659320830632215</v>
+        <v>4.832459219431164</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.56044965756783</v>
+        <v>28.80263000454655</v>
       </c>
       <c r="N11">
-        <v>18.31109589195117</v>
+        <v>18.21004674253904</v>
       </c>
       <c r="O11">
-        <v>20.24428903158983</v>
+        <v>19.42686045358671</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.183503321186334</v>
+        <v>8.990258169303077</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.10526333224627</v>
+        <v>5.821237830018493</v>
       </c>
       <c r="E12">
-        <v>13.69575728136191</v>
+        <v>7.055574356786925</v>
       </c>
       <c r="F12">
-        <v>27.88257104851826</v>
+        <v>27.51022583929804</v>
       </c>
       <c r="G12">
-        <v>28.5724504240593</v>
+        <v>37.76977415687479</v>
       </c>
       <c r="H12">
-        <v>13.20345332593907</v>
+        <v>10.16395674148138</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.649191112882011</v>
+        <v>4.80470432615413</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.70156685417991</v>
+        <v>29.15192438685354</v>
       </c>
       <c r="N12">
-        <v>18.34365175014733</v>
+        <v>18.32852300067305</v>
       </c>
       <c r="O12">
-        <v>20.27630642277817</v>
+        <v>19.63279030483683</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.178006584505543</v>
+        <v>8.966165222950485</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.10674472882818</v>
+        <v>5.82070072534872</v>
       </c>
       <c r="E13">
-        <v>13.69930200689793</v>
+        <v>7.061325076711265</v>
       </c>
       <c r="F13">
-        <v>27.87267103858672</v>
+        <v>27.44700110703074</v>
       </c>
       <c r="G13">
-        <v>28.54379814603918</v>
+        <v>37.66396803977666</v>
       </c>
       <c r="H13">
-        <v>13.20239486231673</v>
+        <v>10.14737247513012</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.651364176559001</v>
+        <v>4.810664429993849</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.67125793789399</v>
+        <v>29.07704507990443</v>
       </c>
       <c r="N13">
-        <v>18.33663079165235</v>
+        <v>18.30304323238068</v>
       </c>
       <c r="O13">
-        <v>20.26938080256099</v>
+        <v>19.58849264153986</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.160095060243547</v>
+        <v>8.887171054243739</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.11161608063097</v>
+        <v>5.819078398971285</v>
       </c>
       <c r="E14">
-        <v>13.71092699637013</v>
+        <v>7.080317766450335</v>
       </c>
       <c r="F14">
-        <v>27.84055422351205</v>
+        <v>27.24052445325565</v>
       </c>
       <c r="G14">
-        <v>28.45037824935382</v>
+        <v>37.3177558956698</v>
       </c>
       <c r="H14">
-        <v>13.19900995515151</v>
+        <v>10.093338594532</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.658483597965532</v>
+        <v>4.830167982608653</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.57209679461275</v>
+        <v>28.8315233334635</v>
       </c>
       <c r="N14">
-        <v>18.31376998187628</v>
+        <v>18.21981004136446</v>
       </c>
       <c r="O14">
-        <v>20.24690952507408</v>
+        <v>19.4438262128072</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.14913532258004</v>
+        <v>8.838460313503326</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.11463080926502</v>
+        <v>5.81818339012986</v>
       </c>
       <c r="E15">
-        <v>13.71809748344538</v>
+        <v>7.092132412084176</v>
       </c>
       <c r="F15">
-        <v>27.82101240441542</v>
+        <v>27.11383285766717</v>
       </c>
       <c r="G15">
-        <v>28.3931748745878</v>
+        <v>37.10480198658651</v>
       </c>
       <c r="H15">
-        <v>13.19698810991731</v>
+        <v>10.06028106072416</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.66286950135642</v>
+        <v>4.84216521689712</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.51111587962234</v>
+        <v>28.68011569726994</v>
       </c>
       <c r="N15">
-        <v>18.29979518394373</v>
+        <v>18.16872282986701</v>
       </c>
       <c r="O15">
-        <v>20.23323373483489</v>
+        <v>19.3550598335205</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.086524656366096</v>
+        <v>8.554328658718575</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.13238029914323</v>
+        <v>5.814541281080865</v>
       </c>
       <c r="E16">
-        <v>13.75995259637301</v>
+        <v>7.162529267771439</v>
       </c>
       <c r="F16">
-        <v>27.71105267109342</v>
+        <v>26.38454912724186</v>
       </c>
       <c r="G16">
-        <v>28.06576328327429</v>
+        <v>35.8707851390096</v>
       </c>
       <c r="H16">
-        <v>13.18619300480938</v>
+        <v>9.871476550427429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.688387764399113</v>
+        <v>4.91168472476746</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.15803154730908</v>
+        <v>27.79680710964982</v>
       </c>
       <c r="N16">
-        <v>18.22015846127148</v>
+        <v>17.87443169026536</v>
       </c>
       <c r="O16">
-        <v>20.15623618975233</v>
+        <v>18.84407416922551</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.048308313644778</v>
+        <v>8.380780356090835</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.14369127742575</v>
+        <v>5.813605279602518</v>
       </c>
       <c r="E17">
-        <v>13.78631100309932</v>
+        <v>7.208029677038439</v>
       </c>
       <c r="F17">
-        <v>27.64542967732035</v>
+        <v>25.93434932713137</v>
       </c>
       <c r="G17">
-        <v>27.86537881363133</v>
+        <v>35.11992858688871</v>
       </c>
       <c r="H17">
-        <v>13.1802784735342</v>
+        <v>9.756246898063983</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.704385903950623</v>
+        <v>4.955008575946987</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.93827873606756</v>
+        <v>27.24091477192808</v>
       </c>
       <c r="N17">
-        <v>18.17172068920671</v>
+        <v>17.69260666533186</v>
       </c>
       <c r="O17">
-        <v>20.11024295034062</v>
+        <v>18.52862010455129</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.026405910958072</v>
+        <v>8.294931338711447</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.15035218843506</v>
+        <v>5.813532805454527</v>
       </c>
       <c r="E18">
-        <v>13.80172215590989</v>
+        <v>7.23501716601712</v>
       </c>
       <c r="F18">
-        <v>27.60836879857887</v>
+        <v>25.674421490427</v>
       </c>
       <c r="G18">
-        <v>27.75034322716106</v>
+        <v>34.68784619491876</v>
       </c>
       <c r="H18">
-        <v>13.17713743938237</v>
+        <v>9.690201196565422</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.713714042973903</v>
+        <v>4.980172202610985</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.81076317637119</v>
+        <v>26.91601449622016</v>
       </c>
       <c r="N18">
-        <v>18.14402073027613</v>
+        <v>17.58758526851231</v>
       </c>
       <c r="O18">
-        <v>20.08425204887743</v>
+        <v>18.34648362590875</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.019004359738583</v>
+        <v>8.265709325107581</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.15263409961214</v>
+        <v>5.813587220606073</v>
       </c>
       <c r="E19">
-        <v>13.80698312959773</v>
+        <v>7.24429188399916</v>
       </c>
       <c r="F19">
-        <v>27.5959389630104</v>
+        <v>25.5862501893137</v>
       </c>
       <c r="G19">
-        <v>27.7114364645148</v>
+        <v>34.54087759554986</v>
       </c>
       <c r="H19">
-        <v>13.17611880169214</v>
+        <v>9.667880234789079</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.716894123862676</v>
+        <v>4.9887339312053</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.76739995104356</v>
+        <v>26.80512012535005</v>
       </c>
       <c r="N19">
-        <v>18.134670169811</v>
+        <v>17.55195436518191</v>
       </c>
       <c r="O19">
-        <v>20.07553214726469</v>
+        <v>18.28469926479011</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.052368542529036</v>
+        <v>8.396595022111089</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.14247114771118</v>
+        <v>5.813656447875227</v>
       </c>
       <c r="E20">
-        <v>13.7834791803209</v>
+        <v>7.203100800666381</v>
       </c>
       <c r="F20">
-        <v>27.65234481109555</v>
+        <v>25.98237693377713</v>
       </c>
       <c r="G20">
-        <v>27.88668834912316</v>
+        <v>35.1995772239647</v>
       </c>
       <c r="H20">
-        <v>13.18088110359397</v>
+        <v>9.768489639305276</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.702669793783132</v>
+        <v>4.950371258651249</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.96178852379582</v>
+        <v>27.3006247283735</v>
       </c>
       <c r="N20">
-        <v>18.17686055344693</v>
+        <v>17.71200858538865</v>
       </c>
       <c r="O20">
-        <v>20.11509121807087</v>
+        <v>18.56227351160806</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.165353736062581</v>
+        <v>8.910441150358338</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.11017880991694</v>
+        <v>5.819534281143822</v>
       </c>
       <c r="E21">
-        <v>13.7075020673209</v>
+        <v>7.074701213437202</v>
       </c>
       <c r="F21">
-        <v>27.84996053967033</v>
+        <v>27.30121741608445</v>
       </c>
       <c r="G21">
-        <v>28.47781422917461</v>
+        <v>37.41963194684091</v>
       </c>
       <c r="H21">
-        <v>13.19999345460791</v>
+        <v>10.10920142287463</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.656387231515263</v>
+        <v>4.824428717141145</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.60127341398135</v>
+        <v>28.90385116831935</v>
       </c>
       <c r="N21">
-        <v>18.32047893741995</v>
+        <v>18.24427958544862</v>
       </c>
       <c r="O21">
-        <v>20.25349147648858</v>
+        <v>19.48635047696086</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.239735191649753</v>
+        <v>9.232928473428949</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.09045614101707</v>
+        <v>5.827763657327083</v>
       </c>
       <c r="E22">
-        <v>13.66007755800714</v>
+        <v>6.99879683408378</v>
       </c>
       <c r="F22">
-        <v>27.98498866765588</v>
+        <v>28.15348617817947</v>
       </c>
       <c r="G22">
-        <v>28.86512535649651</v>
+        <v>38.84100621751812</v>
       </c>
       <c r="H22">
-        <v>13.2147917926446</v>
+        <v>10.33368887196929</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.627260695920944</v>
+        <v>4.744379398659853</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.00848611508276</v>
+        <v>29.90602154007198</v>
       </c>
       <c r="N22">
-        <v>18.415618810908</v>
+        <v>18.58755883578783</v>
       </c>
       <c r="O22">
-        <v>20.34792403522127</v>
+        <v>20.08347591464067</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.199994839421903</v>
+        <v>9.062134603305037</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.10085598812266</v>
+        <v>5.822958380855963</v>
       </c>
       <c r="E23">
-        <v>13.68518475898333</v>
+        <v>7.038537572210535</v>
       </c>
       <c r="F23">
-        <v>27.91239479122993</v>
+        <v>27.69953453157917</v>
       </c>
       <c r="G23">
-        <v>28.6583676567582</v>
+        <v>38.08601487000677</v>
       </c>
       <c r="H23">
-        <v>13.20668334023168</v>
+        <v>10.21372048492209</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.642703626640415</v>
+        <v>4.786891844053147</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.79216511787402</v>
+        <v>29.37530046470923</v>
       </c>
       <c r="N23">
-        <v>18.36473129685766</v>
+        <v>18.40479484041311</v>
       </c>
       <c r="O23">
-        <v>20.29716668134994</v>
+        <v>19.76542640580182</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.050532697320891</v>
+        <v>8.389448170573996</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.14302227596898</v>
+        <v>5.8136318669661</v>
       </c>
       <c r="E24">
-        <v>13.78475864576084</v>
+        <v>7.205326572388331</v>
       </c>
       <c r="F24">
-        <v>27.64921640016553</v>
+        <v>25.96066707413495</v>
       </c>
       <c r="G24">
-        <v>27.87705377330274</v>
+        <v>35.16358091233253</v>
       </c>
       <c r="H24">
-        <v>13.18060784662069</v>
+        <v>9.762954065870352</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.703445240341079</v>
+        <v>4.952466992717887</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.95116340530512</v>
+        <v>27.2736464015986</v>
       </c>
       <c r="N24">
-        <v>18.17453635953123</v>
+        <v>17.70323848895806</v>
       </c>
       <c r="O24">
-        <v>20.11289790907812</v>
+        <v>18.54706122113246</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.89241521017636</v>
+        <v>7.747176061079237</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.194436166965</v>
+        <v>5.821243510759758</v>
       </c>
       <c r="E25">
-        <v>13.90174251277983</v>
+        <v>7.416120549400588</v>
       </c>
       <c r="F25">
-        <v>27.39158121593925</v>
+        <v>24.04830609717727</v>
       </c>
       <c r="G25">
-        <v>27.0433147530846</v>
+        <v>31.94083572185616</v>
       </c>
       <c r="H25">
-        <v>13.16245948089281</v>
+        <v>9.285776525546684</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.773801344838141</v>
+        <v>5.140405020914991</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.00176485642352</v>
+        <v>24.80901828216093</v>
       </c>
       <c r="N25">
-        <v>17.97558872400398</v>
+        <v>16.93013947398064</v>
       </c>
       <c r="O25">
-        <v>19.93191460752485</v>
+        <v>17.20690943060209</v>
       </c>
     </row>
   </sheetData>
